--- a/biology/Botanique/Crudia_zeylanica/Crudia_zeylanica.xlsx
+++ b/biology/Botanique/Crudia_zeylanica/Crudia_zeylanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crudia zeylanica (singhalais : පණු කරඳ), parfois connue sous le nom de légumineuse du Sri Lanka, est une espèce  de la famille des Fabaceae endémique du Sri Lanka[1]. On la pensait éteinte[2], mais la plante a été redécouverte en 2019 par trois jeunes chercheurs dont Himesh Dilruwan Jayasinghe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crudia zeylanica (singhalais : පණු කරඳ), parfois connue sous le nom de légumineuse du Sri Lanka, est une espèce  de la famille des Fabaceae endémique du Sri Lanka. On la pensait éteinte, mais la plante a été redécouverte en 2019 par trois jeunes chercheurs dont Himesh Dilruwan Jayasinghe.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Redécouverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet arbre que l'on croyait autrefois éteint avec le dernier rapport confirmé en 1911. Il n'était connu que des spécimens d'herbier. En 2019, cette plante a été redécouverte dans une petite parcelle de terrain forestier située à proximité de la gare de Daraluwa à Gampaha à plusieurs endroits du district de Gampaha[3]. Il a depuis été trouvé  dans le district de Gampaha selon le directeur général du département de la conservation de la faune et de la flore.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre que l'on croyait autrefois éteint avec le dernier rapport confirmé en 1911. Il n'était connu que des spécimens d'herbier. En 2019, cette plante a été redécouverte dans une petite parcelle de terrain forestier située à proximité de la gare de Daraluwa à Gampaha à plusieurs endroits du district de Gampaha. Il a depuis été trouvé  dans le district de Gampaha selon le directeur général du département de la conservation de la faune et de la flore.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Effort de conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 7 février 2021, l'agent de protection de la vie sauvage  de la division Gampaha, Devani Jayathilaka, s'est rendu sur un chantier de construction de l'autoroute de Kadawatha à Meerigama et a découvert un plant de Crudia zeylanica[4]. Elle a immédiatement empêché les travailleurs de le détruire et a informé le personnel de l'affaire. La nouvelle a fait un énorme cirque médiatique au Sri Lanka, où plusieurs autorités ont cité la valeur de cet arbre ; ils ont ainsi empêché sa coupe [5].
-Le 10 février 2021, la plante a été sacralisée par le clergé bouddhiste du Front national du Bhikku[6].
-Cet arbre est abattu pour permettre la construction d'une autoroute en juillet 2023[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 7 février 2021, l'agent de protection de la vie sauvage  de la division Gampaha, Devani Jayathilaka, s'est rendu sur un chantier de construction de l'autoroute de Kadawatha à Meerigama et a découvert un plant de Crudia zeylanica. Elle a immédiatement empêché les travailleurs de le détruire et a informé le personnel de l'affaire. La nouvelle a fait un énorme cirque médiatique au Sri Lanka, où plusieurs autorités ont cité la valeur de cet arbre ; ils ont ainsi empêché sa coupe .
+Le 10 février 2021, la plante a été sacralisée par le clergé bouddhiste du Front national du Bhikku.
+Cet arbre est abattu pour permettre la construction d'une autoroute en juillet 2023.
 </t>
         </is>
       </c>
